--- a/biology/Neurosciences/Neurophysiologie/Neurophysiologie.xlsx
+++ b/biology/Neurosciences/Neurophysiologie/Neurophysiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La neurophysiologie est l'étude des fonctions du système nerveux (physio &gt; fonctionnement, logie &gt; étude), reposant sur tous les niveaux de description, du niveau moléculaire jusqu'au niveau le plus intégré des réseaux neuronaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La neurophysiologie est l'étude des fonctions du système nerveux (physio &gt; fonctionnement, logie &gt; étude), reposant sur tous les niveaux de description, du niveau moléculaire jusqu'au niveau le plus intégré des réseaux neuronaux.
 C'est une science pluridisciplinaire, au carrefour d'autres sciences biologiques (neuroanatomie, neuroendocrinologie, neuropharmacologie, etc.) et comportementales (neuropsychologie, psychiatrie...), notamment.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Physiologie : fonctionnement des organes
 Système nerveux central : inclut l’encéphale, protégé dans la boite crânienne, et la moelle épinière dans la colonne vertébrale.
@@ -558,8 +572,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement et organisation anatomique du système nerveux
-Les hommes sont triploblastiques. Lors du développement de l'embryon, trois feuillets se mettent en place : l’ectoderme, l’endoderme et le mésoderme. Le phénomène qui va mettre en place le système nerveux de l’embryon est la neurulation. La zone dorsale de l’ectoderme va alors s'invaginer, provoquant une soudure des bords. Un tube alors appelé tube neural va ainsi rester juste en dessous de l’ectoderme. Dans l’embryon, le système nerveux dérive de ce tube neural provenant de l’invagination de l’ectoderme dorsal à la fin de la gastrulation. Plus précisément, le tube neural donnera le système nerveux central (SNC). Il s'agit de la partie du système nerveux qui est dans notre centre de symétrie. De part et d’autre du tube neural vont se détacher les crêtes neurales qui donneront le système nerveux périphérique dit SNP (nerfs et récepteurs du système sensoriel).
+          <t>Développement et organisation anatomique du système nerveux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hommes sont triploblastiques. Lors du développement de l'embryon, trois feuillets se mettent en place : l’ectoderme, l’endoderme et le mésoderme. Le phénomène qui va mettre en place le système nerveux de l’embryon est la neurulation. La zone dorsale de l’ectoderme va alors s'invaginer, provoquant une soudure des bords. Un tube alors appelé tube neural va ainsi rester juste en dessous de l’ectoderme. Dans l’embryon, le système nerveux dérive de ce tube neural provenant de l’invagination de l’ectoderme dorsal à la fin de la gastrulation. Plus précisément, le tube neural donnera le système nerveux central (SNC). Il s'agit de la partie du système nerveux qui est dans notre centre de symétrie. De part et d’autre du tube neural vont se détacher les crêtes neurales qui donneront le système nerveux périphérique dit SNP (nerfs et récepteurs du système sensoriel).
 </t>
         </is>
       </c>
